--- a/Stundenzettel_Hiwis_Nazareth_2503.xlsx
+++ b/Stundenzettel_Hiwis_Nazareth_2503.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>04.03.2025</t>
+  </si>
+  <si>
+    <t>18.03.2025</t>
   </si>
 </sst>
 </file>
@@ -909,36 +912,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,23 +979,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1313,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1335,16 +1338,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
@@ -1362,31 +1365,31 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1404,12 +1407,12 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -1427,10 +1430,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1458,10 +1461,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1487,10 +1490,10 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v>0.125</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1516,10 +1519,10 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1545,10 +1548,10 @@
         <f t="shared" si="0"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1560,16 +1563,22 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1591,11 +1600,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="95" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1617,11 +1626,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="73"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1643,8 +1652,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1672,13 +1681,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
@@ -1691,8 +1700,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1714,8 +1723,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1737,8 +1746,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1760,8 +1769,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1783,8 +1792,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1815,8 +1824,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1843,8 +1852,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1873,8 +1882,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1905,8 +1914,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1929,8 +1938,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1953,8 +1962,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -1972,8 +1981,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -1993,8 +2002,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -2019,8 +2028,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -2045,8 +2054,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2071,8 +2080,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -2084,8 +2093,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2097,8 +2106,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2110,8 +2119,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2123,8 +2132,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2136,8 +2145,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2149,8 +2158,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2162,8 +2171,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2175,66 +2184,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="99">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="75">
         <f>SUM(E7:E39)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F40" s="102" t="s">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F40" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="103"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="102" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="103"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="97" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="98"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="79">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="101">
         <f>(E40*60*24)/60</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2249,33 +2258,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="77" t="s">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="77" t="s">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>5.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -2369,39 +2378,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2418,6 +2394,39 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>

--- a/Stundenzettel_Hiwis_Nazareth_2503.xlsx
+++ b/Stundenzettel_Hiwis_Nazareth_2503.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Terril\Arduino Script\Arduino\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hiwi-Stundenzettel" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hiwi-Stundenzettel'!$A$1:$H$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Datum</t>
   </si>
@@ -303,17 +298,29 @@
   <si>
     <t>18.03.2025</t>
   </si>
+  <si>
+    <t>20.03.2025</t>
+  </si>
+  <si>
+    <t>21.03.2025</t>
+  </si>
+  <si>
+    <t>Establish Bluetooth connection with board</t>
+  </si>
+  <si>
+    <t>Try connecting 2 devices via bluetooth at once</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,8 +1015,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1067,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,10 +1106,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,7 +1140,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1310,34 +1315,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="1.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="6"/>
-    <col min="10" max="10" width="11.54296875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" style="6" customWidth="1"/>
-    <col min="12" max="14" width="11.54296875" style="6"/>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="6"/>
+    <col min="10" max="10" width="11.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="6" customWidth="1"/>
+    <col min="12" max="14" width="11.5703125" style="6"/>
     <col min="15" max="15" width="23" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="11.54296875" style="6"/>
+    <col min="16" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="21.75">
       <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="6.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1361,7 +1366,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1386,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
       <c r="C4" s="91" t="s">
@@ -1400,7 +1405,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="18.75" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1421,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:15" ht="28.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="30.75" thickTop="1">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1451,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="44"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" s="71" t="s">
         <v>53</v>
       </c>
@@ -1475,7 +1480,7 @@
       <c r="N7" s="46"/>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15">
       <c r="A8" s="71" t="s">
         <v>59</v>
       </c>
@@ -1504,7 +1509,7 @@
       <c r="N8" s="46"/>
       <c r="O8" s="48"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1538,7 @@
       <c r="N9" s="46"/>
       <c r="O9" s="48"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1562,7 +1567,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1577,7 +1582,9 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="72"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
@@ -1591,16 +1598,24 @@
       <c r="N11" s="46"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="72"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="72"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
@@ -1617,14 +1632,20 @@
       </c>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.625</v>
+      </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666669</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
@@ -1643,7 +1664,7 @@
       </c>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1672,7 +1693,7 @@
       </c>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1691,7 +1712,7 @@
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1714,7 +1735,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1737,7 +1758,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1760,7 +1781,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1783,7 +1804,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1815,7 +1836,7 @@
       </c>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1846,7 +1867,7 @@
       </c>
       <c r="O21" s="48"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1873,7 +1894,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="48"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1905,7 +1926,7 @@
       </c>
       <c r="O23" s="48"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1929,7 +1950,7 @@
       </c>
       <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1953,7 +1974,7 @@
       </c>
       <c r="O25" s="37"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1972,7 +1993,7 @@
       <c r="N26" s="46"/>
       <c r="O26" s="48"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1993,7 +2014,7 @@
       <c r="N27" s="46"/>
       <c r="O27" s="48"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2019,7 +2040,7 @@
       <c r="N28" s="46"/>
       <c r="O28" s="48"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2045,7 +2066,7 @@
       </c>
       <c r="O29" s="48"/>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2071,7 +2092,7 @@
       </c>
       <c r="O30" s="56"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15.75" thickTop="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2084,7 +2105,7 @@
       <c r="G31" s="72"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2097,7 +2118,7 @@
       <c r="G32" s="72"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2110,7 +2131,7 @@
       <c r="G33" s="72"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2123,7 +2144,7 @@
       <c r="G34" s="72"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2136,7 +2157,7 @@
       <c r="G35" s="72"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2149,7 +2170,7 @@
       <c r="G36" s="72"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2162,7 +2183,7 @@
       <c r="G37" s="72"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2175,7 +2196,7 @@
       <c r="G38" s="72"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2188,14 +2209,14 @@
       <c r="G39" s="72"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" s="98"/>
       <c r="B40" s="98"/>
       <c r="C40" s="98"/>
       <c r="D40" s="98"/>
       <c r="E40" s="75">
         <f>SUM(E7:E39)</f>
-        <v>0.91666666666666663</v>
+        <v>1.3750000000000002</v>
       </c>
       <c r="F40" s="78" t="s">
         <v>35</v>
@@ -2206,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="98"/>
       <c r="B41" s="98"/>
       <c r="C41" s="98"/>
@@ -2221,7 +2242,7 @@
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="98"/>
       <c r="B42" s="98"/>
       <c r="C42" s="98"/>
@@ -2236,14 +2257,14 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="98"/>
       <c r="B43" s="98"/>
       <c r="C43" s="98"/>
       <c r="D43" s="98"/>
       <c r="E43" s="101">
         <f>(E40*60*24)/60</f>
-        <v>22</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2257,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="98"/>
       <c r="B44" s="98"/>
       <c r="C44" s="98"/>
@@ -2269,10 +2290,10 @@
       <c r="G44" s="100"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33.000000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="98"/>
       <c r="B45" s="98"/>
       <c r="C45" s="98"/>
@@ -2284,12 +2305,12 @@
       <c r="G45" s="100"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>8.8000000000000007</v>
+        <v>19.800000000000008</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2299,7 +2320,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2309,7 +2330,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="18">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="D48" s="25" t="s">
@@ -2322,7 +2343,7 @@
       <c r="G48" s="26"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="5.25" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="D49" s="25"/>
@@ -2331,7 +2352,7 @@
       <c r="G49" s="26"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2345,7 +2366,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2355,7 +2376,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2365,7 +2386,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>

--- a/Stundenzettel_Hiwis_Nazareth_2503.xlsx
+++ b/Stundenzettel_Hiwis_Nazareth_2503.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Try connecting 2 devices via bluetooth at once</t>
+  </si>
+  <si>
+    <t>19.03.2025</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2">
         <v>0.54166666666666663</v>
@@ -1634,18 +1640,18 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="C13" s="2">
-        <v>0.625</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
@@ -1665,13 +1671,19 @@
       <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.18750000000000006</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
@@ -1721,7 +1733,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="72" t="s">
+        <v>66</v>
+      </c>
       <c r="G16" s="72"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
@@ -2216,7 +2230,7 @@
       <c r="D40" s="98"/>
       <c r="E40" s="75">
         <f>SUM(E7:E39)</f>
-        <v>1.3750000000000002</v>
+        <v>1.6875</v>
       </c>
       <c r="F40" s="78" t="s">
         <v>35</v>
@@ -2264,7 +2278,7 @@
       <c r="D43" s="98"/>
       <c r="E43" s="101">
         <f>(E40*60*24)/60</f>
-        <v>33.000000000000007</v>
+        <v>40.5</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2290,7 +2304,7 @@
       <c r="G44" s="100"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>33.000000000000007</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
@@ -2305,7 +2319,7 @@
       <c r="G45" s="100"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>19.800000000000008</v>
+        <v>27.3</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>

--- a/Stundenzettel_Hiwis_Nazareth_2503.xlsx
+++ b/Stundenzettel_Hiwis_Nazareth_2503.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -314,7 +314,16 @@
     <t>19.03.2025</t>
   </si>
   <si>
-    <t>s</t>
+    <t>27.03.2025</t>
+  </si>
+  <si>
+    <t>Modification of LegoIno library</t>
+  </si>
+  <si>
+    <t>Integration and setting up the prototype</t>
+  </si>
+  <si>
+    <t>Improvements and bug fixes in the code</t>
   </si>
 </sst>
 </file>
@@ -925,26 +934,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,33 +1011,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,7 +1337,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1349,16 +1358,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
@@ -1376,31 +1385,31 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1418,12 +1427,12 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -1441,10 +1450,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1472,10 +1481,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1501,10 +1510,10 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v>0.125</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1530,10 +1539,10 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1559,10 +1568,10 @@
         <f t="shared" si="0"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1588,10 +1597,10 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1619,13 +1628,13 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666674</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="72" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1653,11 +1662,13 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="F13" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="75"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="96"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1685,8 +1696,10 @@
         <f t="shared" si="0"/>
         <v>0.18750000000000006</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="75"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1706,21 +1719,29 @@
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="75"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
@@ -1733,10 +1754,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="72"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1758,8 +1777,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1781,8 +1800,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1804,8 +1823,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1827,8 +1846,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1859,8 +1878,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1887,8 +1906,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1917,8 +1936,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1949,8 +1968,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1973,8 +1992,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1997,8 +2016,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -2016,8 +2035,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -2037,8 +2056,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -2063,8 +2082,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -2089,8 +2108,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2115,8 +2134,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:15">
@@ -2128,8 +2147,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:10">
@@ -2141,8 +2160,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:10">
@@ -2154,8 +2173,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:10">
@@ -2167,8 +2186,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:10">
@@ -2180,8 +2199,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:10">
@@ -2193,8 +2212,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:10">
@@ -2206,8 +2225,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:10">
@@ -2219,66 +2238,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="75">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="99">
         <f>SUM(E7:E39)</f>
-        <v>1.6875</v>
-      </c>
-      <c r="F40" s="78" t="s">
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="F40" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="78" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="73" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="74"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="101">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="79">
         <f>(E40*60*24)/60</f>
-        <v>40.5</v>
+        <v>44.000000000000007</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2293,33 +2312,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="99" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="100"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>40.5</v>
+        <v>44.000000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="99" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="100"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>27.3</v>
+        <v>30.800000000000008</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -2413,6 +2432,39 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2429,39 +2481,6 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>

--- a/Stundenzettel_Hiwis_Nazareth_2503.xlsx
+++ b/Stundenzettel_Hiwis_Nazareth_2503.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Terril\Arduino Script\Arduino\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hiwi-Stundenzettel'!$A$1:$H$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -325,17 +330,29 @@
   <si>
     <t>Improvements and bug fixes in the code</t>
   </si>
+  <si>
+    <t>28.03.2025</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>31.03.2025</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,36 +951,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,27 +1018,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1089,7 +1106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,9 +1138,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1155,6 +1173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1330,48 +1349,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="6"/>
-    <col min="10" max="10" width="11.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="6" customWidth="1"/>
-    <col min="12" max="14" width="11.5703125" style="6"/>
+    <col min="1" max="1" width="9.81640625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="6"/>
+    <col min="10" max="10" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" style="6" customWidth="1"/>
+    <col min="12" max="14" width="11.54296875" style="6"/>
     <col min="15" max="15" width="23" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="11.5703125" style="6"/>
+    <col min="16" max="16384" width="11.54296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="6.75" customHeight="1">
+    <row r="2" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1381,35 +1400,35 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="18">
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1420,23 +1439,23 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" thickBot="1">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:15" ht="30.75" thickTop="1">
+    <row r="6" spans="1:15" ht="28.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1450,10 +1469,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1485,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="44"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="71" t="s">
         <v>53</v>
       </c>
@@ -1481,10 +1500,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>0.14583333333333337</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1495,7 +1514,7 @@
       <c r="N7" s="46"/>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="71" t="s">
         <v>59</v>
       </c>
@@ -1510,10 +1529,10 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v>0.125</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1524,7 +1543,7 @@
       <c r="N8" s="46"/>
       <c r="O8" s="48"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1539,10 +1558,10 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1553,7 +1572,7 @@
       <c r="N9" s="46"/>
       <c r="O9" s="48"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1568,10 +1587,10 @@
         <f t="shared" si="0"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1582,7 +1601,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1597,10 +1616,10 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="75"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1613,7 +1632,7 @@
       <c r="N11" s="46"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1628,13 +1647,13 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666674</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="95" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1647,7 +1666,7 @@
       </c>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1662,13 +1681,13 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="75"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="73"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1681,7 +1700,7 @@
       </c>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1696,10 +1715,10 @@
         <f t="shared" si="0"/>
         <v>0.18750000000000006</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="75"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1718,7 +1737,7 @@
       </c>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -1733,29 +1752,37 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.625</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="72"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1768,17 +1795,25 @@
       <c r="N16" s="24"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="72"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1791,7 +1826,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1800,8 +1835,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1814,7 +1849,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1823,8 +1858,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1837,7 +1872,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1846,8 +1881,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1869,7 +1904,7 @@
       </c>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1878,8 +1913,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1900,14 +1935,14 @@
       </c>
       <c r="O21" s="48"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1927,7 +1962,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="48"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1936,8 +1971,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1959,7 +1994,7 @@
       </c>
       <c r="O23" s="48"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1968,8 +2003,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1983,7 +2018,7 @@
       </c>
       <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1992,8 +2027,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -2007,7 +2042,7 @@
       </c>
       <c r="O25" s="37"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2016,8 +2051,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -2026,7 +2061,7 @@
       <c r="N26" s="46"/>
       <c r="O26" s="48"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2035,8 +2070,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -2047,7 +2082,7 @@
       <c r="N27" s="46"/>
       <c r="O27" s="48"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2056,8 +2091,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -2073,7 +2108,7 @@
       <c r="N28" s="46"/>
       <c r="O28" s="48"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2082,8 +2117,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -2099,7 +2134,7 @@
       </c>
       <c r="O29" s="48"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2108,8 +2143,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2125,7 +2160,7 @@
       </c>
       <c r="O30" s="56"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickTop="1">
+    <row r="31" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2134,11 +2169,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2147,11 +2182,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2160,11 +2195,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2173,11 +2208,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2186,11 +2221,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2199,11 +2234,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2212,11 +2247,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2225,11 +2260,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2238,66 +2273,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="99">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="75">
         <f>SUM(E7:E39)</f>
-        <v>1.8333333333333335</v>
-      </c>
-      <c r="F40" s="102" t="s">
+        <v>2.1458333333333335</v>
+      </c>
+      <c r="F40" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="103"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="102" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="103"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="97" t="s">
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="98"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="79">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="101">
         <f>(E40*60*24)/60</f>
-        <v>44.000000000000007</v>
+        <v>51.5</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2311,39 +2346,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="77" t="s">
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>44.000000000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="77" t="s">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>30.800000000000008</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2353,7 +2388,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2363,7 +2398,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="18">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="D48" s="25" t="s">
@@ -2376,7 +2411,7 @@
       <c r="G48" s="26"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="5.25" customHeight="1">
+    <row r="49" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="D49" s="25"/>
@@ -2385,7 +2420,7 @@
       <c r="G49" s="26"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="18">
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2399,7 +2434,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2409,7 +2444,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2419,7 +2454,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2432,39 +2467,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2481,6 +2483,39 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
